--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_22_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_22_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2364722.007958522</v>
+        <v>-2367643.252942775</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -911,10 +911,10 @@
         <v>13.79223673232706</v>
       </c>
       <c r="H5" t="n">
-        <v>34.88448735196061</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>10.05797398556837</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>34.88448735196103</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>34.88448735196061</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>34.88448735196103</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>34.88448735196103</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>34.88448735196061</v>
+        <v>10.05797398556875</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>34.88448735196103</v>
       </c>
       <c r="C6" t="n">
-        <v>30.7262564596069</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>34.88448735196061</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>30.72625645960724</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>34.88448735196061</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>34.88448735196103</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>34.88448735196061</v>
+        <v>34.88448735196103</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.72625645960688</v>
+        <v>1.30051073615954</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>34.88448735196061</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>34.88448735196103</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.42574572344771</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>34.88448735196061</v>
+        <v>34.88448735196103</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>34.88448735196061</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>34.88448735196103</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>68.15611290921541</v>
+        <v>26.96540421055336</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>92.66494928910228</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.46317442462584</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>34.31466295695061</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>79.72745415401958</v>
+      </c>
+      <c r="F9" t="n">
         <v>92.66494928910228</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>55.50897386746507</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>39.04780860145888</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>81.61928733384126</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
         <v>92.66494928910228</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>92.66494928910228</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>64.55353321553584</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>17.06575411830538</v>
       </c>
       <c r="R10" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>81.61928733384126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>243.2395284792061</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,10 +1385,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>201.6086852141648</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>159.9158007078311</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>35.66783179869854</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>254.7594172453479</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1625,7 @@
         <v>286.8518683469699</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605494</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,10 +1661,10 @@
         <v>200.6028050067863</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9345864167828</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>136.1440119559236</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>146.0024950227691</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>81.97599399093703</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>86.13649374674407</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>218.097472392356</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1933087134791</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
         <v>375.2658433894975</v>
@@ -1859,7 +1859,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
@@ -1910,7 +1910,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.62773630384</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="18">
@@ -2005,22 +2005,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G19" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
         <v>186.4872700401421</v>
@@ -2065,7 +2065,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
         <v>186.9744509998809</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D20" t="n">
-        <v>323.0728392684705</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F20" t="n">
         <v>375.2658433894975</v>
@@ -2096,7 +2096,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H20" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
@@ -2147,7 +2147,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="21">
@@ -2242,22 +2242,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E22" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G22" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T22" t="n">
         <v>186.4872700401421</v>
@@ -2302,7 +2302,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y22" t="n">
         <v>186.9744509998809</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D23" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F23" t="n">
         <v>375.2658433894975</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
@@ -2384,7 +2384,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,22 +2479,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G25" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
         <v>186.4872700401421</v>
@@ -2539,7 +2539,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y25" t="n">
         <v>186.9744509998809</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
@@ -2652,7 +2652,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I27" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,22 +2716,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G28" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
         <v>186.4872700401421</v>
@@ -2776,7 +2776,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
         <v>186.9744509998809</v>
@@ -2807,7 +2807,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
@@ -2889,7 +2889,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I30" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D31" t="n">
         <v>117.0052706659985</v>
@@ -2962,13 +2962,13 @@
         <v>113.8108456707174</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H31" t="n">
         <v>110.1245053442998</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424834</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D32" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
         <v>375.2658433894975</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
         <v>296.142056117921</v>
@@ -3095,7 +3095,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I33" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3190,22 +3190,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V34" t="n">
         <v>220.5274409716141</v>
@@ -3250,10 +3250,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="35">
@@ -3275,13 +3275,13 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894981</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G35" t="n">
         <v>378.5542040247498</v>
       </c>
       <c r="H35" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
@@ -3363,7 +3363,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I36" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6366187464131</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E37" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G37" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
         <v>186.4872700401421</v>
@@ -3487,7 +3487,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
         <v>186.9744509998809</v>
@@ -3512,13 +3512,13 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F38" t="n">
-        <v>375.265843389499</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G38" t="n">
         <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
@@ -3560,7 +3560,7 @@
         <v>219.3243840645689</v>
       </c>
       <c r="V38" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179206</v>
       </c>
       <c r="W38" t="n">
         <v>317.6307663651991</v>
@@ -3600,7 +3600,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I39" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3670,16 +3670,16 @@
         <v>114.8237602943553</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G40" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453016</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.0474723022158</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
         <v>186.4872700401421</v>
@@ -3724,7 +3724,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
         <v>186.9744509998809</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D41" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F41" t="n">
-        <v>375.265843389499</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G41" t="n">
         <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947557</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
@@ -3806,7 +3806,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I42" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G43" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
         <v>186.4872700401421</v>
@@ -3961,7 +3961,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
         <v>186.9744509998809</v>
@@ -4074,7 +4074,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I45" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,22 +4138,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G46" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221581</v>
+        <v>42.0474723022158</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
         <v>186.4872700401421</v>
@@ -4198,7 +4198,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
         <v>186.9744509998809</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69.06423758569977</v>
+        <v>23.66781199223617</v>
       </c>
       <c r="C5" t="n">
-        <v>69.06423758569977</v>
+        <v>23.66781199223617</v>
       </c>
       <c r="D5" t="n">
-        <v>69.06423758569977</v>
+        <v>23.66781199223617</v>
       </c>
       <c r="E5" t="n">
-        <v>69.06423758569977</v>
+        <v>23.66781199223617</v>
       </c>
       <c r="F5" t="n">
-        <v>62.1187368364963</v>
+        <v>16.7223112430327</v>
       </c>
       <c r="G5" t="n">
-        <v>48.18718458162047</v>
+        <v>2.790758988156882</v>
       </c>
       <c r="H5" t="n">
-        <v>12.95032867054915</v>
+        <v>2.790758988156882</v>
       </c>
       <c r="I5" t="n">
-        <v>2.790758988156849</v>
+        <v>2.790758988156882</v>
       </c>
       <c r="J5" t="n">
-        <v>11.77088639834309</v>
+        <v>2.790758988156882</v>
       </c>
       <c r="K5" t="n">
-        <v>11.77088639834309</v>
+        <v>2.790758988156882</v>
       </c>
       <c r="L5" t="n">
-        <v>46.30652887678409</v>
+        <v>37.3264014665983</v>
       </c>
       <c r="M5" t="n">
-        <v>80.84217135522508</v>
+        <v>71.86204394503973</v>
       </c>
       <c r="N5" t="n">
-        <v>115.3778138336661</v>
+        <v>106.3976864234811</v>
       </c>
       <c r="O5" t="n">
-        <v>139.5379494078424</v>
+        <v>139.5379494078441</v>
       </c>
       <c r="P5" t="n">
-        <v>139.5379494078424</v>
+        <v>139.5379494078441</v>
       </c>
       <c r="Q5" t="n">
-        <v>139.5379494078424</v>
+        <v>139.5379494078441</v>
       </c>
       <c r="R5" t="n">
-        <v>139.5379494078424</v>
+        <v>104.3010934967724</v>
       </c>
       <c r="S5" t="n">
-        <v>139.5379494078424</v>
+        <v>104.3010934967724</v>
       </c>
       <c r="T5" t="n">
-        <v>104.3010934967711</v>
+        <v>104.3010934967724</v>
       </c>
       <c r="U5" t="n">
-        <v>104.3010934967711</v>
+        <v>69.0642375857006</v>
       </c>
       <c r="V5" t="n">
-        <v>104.3010934967711</v>
+        <v>33.82738167462885</v>
       </c>
       <c r="W5" t="n">
-        <v>104.3010934967711</v>
+        <v>33.82738167462885</v>
       </c>
       <c r="X5" t="n">
-        <v>69.06423758569977</v>
+        <v>23.66781199223617</v>
       </c>
       <c r="Y5" t="n">
-        <v>69.06423758569977</v>
+        <v>23.66781199223617</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104.3010934967711</v>
+        <v>33.82738167462885</v>
       </c>
       <c r="C6" t="n">
-        <v>73.26447081029949</v>
+        <v>33.82738167462885</v>
       </c>
       <c r="D6" t="n">
-        <v>38.02761489922817</v>
+        <v>33.82738167462885</v>
       </c>
       <c r="E6" t="n">
-        <v>38.02761489922817</v>
+        <v>33.82738167462885</v>
       </c>
       <c r="F6" t="n">
-        <v>38.02761489922817</v>
+        <v>2.790758988156882</v>
       </c>
       <c r="G6" t="n">
-        <v>38.02761489922817</v>
+        <v>2.790758988156882</v>
       </c>
       <c r="H6" t="n">
-        <v>2.790758988156849</v>
+        <v>2.790758988156882</v>
       </c>
       <c r="I6" t="n">
-        <v>2.790758988156849</v>
+        <v>2.790758988156882</v>
       </c>
       <c r="J6" t="n">
-        <v>2.790758988156849</v>
+        <v>2.790758988156882</v>
       </c>
       <c r="K6" t="n">
-        <v>2.790758988156849</v>
+        <v>2.790758988156882</v>
       </c>
       <c r="L6" t="n">
-        <v>15.78028780133863</v>
+        <v>37.3264014665983</v>
       </c>
       <c r="M6" t="n">
-        <v>50.31593027977964</v>
+        <v>71.86204394503972</v>
       </c>
       <c r="N6" t="n">
-        <v>84.85157275822064</v>
+        <v>106.3976864234811</v>
       </c>
       <c r="O6" t="n">
-        <v>119.3872152366616</v>
+        <v>119.3872152366631</v>
       </c>
       <c r="P6" t="n">
-        <v>139.5379494078424</v>
+        <v>139.5379494078441</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.5379494078424</v>
+        <v>139.5379494078441</v>
       </c>
       <c r="R6" t="n">
-        <v>139.5379494078424</v>
+        <v>104.3010934967724</v>
       </c>
       <c r="S6" t="n">
-        <v>139.5379494078424</v>
+        <v>104.3010934967724</v>
       </c>
       <c r="T6" t="n">
-        <v>139.5379494078424</v>
+        <v>104.3010934967724</v>
       </c>
       <c r="U6" t="n">
-        <v>104.3010934967711</v>
+        <v>69.0642375857006</v>
       </c>
       <c r="V6" t="n">
-        <v>104.3010934967711</v>
+        <v>69.0642375857006</v>
       </c>
       <c r="W6" t="n">
-        <v>104.3010934967711</v>
+        <v>69.0642375857006</v>
       </c>
       <c r="X6" t="n">
-        <v>104.3010934967711</v>
+        <v>69.0642375857006</v>
       </c>
       <c r="Y6" t="n">
-        <v>104.3010934967711</v>
+        <v>69.0642375857006</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.02761489922817</v>
+        <v>38.02761489922863</v>
       </c>
       <c r="C7" t="n">
-        <v>38.02761489922817</v>
+        <v>38.02761489922863</v>
       </c>
       <c r="D7" t="n">
-        <v>38.02761489922817</v>
+        <v>38.02761489922863</v>
       </c>
       <c r="E7" t="n">
-        <v>38.02761489922817</v>
+        <v>38.02761489922863</v>
       </c>
       <c r="F7" t="n">
-        <v>38.02761489922817</v>
+        <v>38.02761489922863</v>
       </c>
       <c r="G7" t="n">
-        <v>38.02761489922817</v>
+        <v>38.02761489922863</v>
       </c>
       <c r="H7" t="n">
-        <v>2.790758988156849</v>
+        <v>38.02761489922863</v>
       </c>
       <c r="I7" t="n">
-        <v>2.790758988156849</v>
+        <v>38.02761489922863</v>
       </c>
       <c r="J7" t="n">
-        <v>2.790758988156849</v>
+        <v>2.790758988156882</v>
       </c>
       <c r="K7" t="n">
-        <v>2.790758988156849</v>
+        <v>2.790758988156882</v>
       </c>
       <c r="L7" t="n">
-        <v>37.32640146659785</v>
+        <v>37.3264014665983</v>
       </c>
       <c r="M7" t="n">
-        <v>71.86204394503886</v>
+        <v>71.86204394503972</v>
       </c>
       <c r="N7" t="n">
-        <v>105.0023069294014</v>
+        <v>106.3976864234811</v>
       </c>
       <c r="O7" t="n">
-        <v>139.5379494078424</v>
+        <v>139.5379494078441</v>
       </c>
       <c r="P7" t="n">
-        <v>139.5379494078424</v>
+        <v>139.5379494078441</v>
       </c>
       <c r="Q7" t="n">
-        <v>139.5379494078424</v>
+        <v>109.8149739296141</v>
       </c>
       <c r="R7" t="n">
-        <v>139.5379494078424</v>
+        <v>109.8149739296141</v>
       </c>
       <c r="S7" t="n">
-        <v>104.3010934967711</v>
+        <v>74.57811801854234</v>
       </c>
       <c r="T7" t="n">
-        <v>104.3010934967711</v>
+        <v>74.57811801854234</v>
       </c>
       <c r="U7" t="n">
-        <v>69.06423758569977</v>
+        <v>74.57811801854234</v>
       </c>
       <c r="V7" t="n">
-        <v>69.06423758569977</v>
+        <v>74.57811801854234</v>
       </c>
       <c r="W7" t="n">
-        <v>69.06423758569977</v>
+        <v>39.34126210747059</v>
       </c>
       <c r="X7" t="n">
-        <v>69.06423758569977</v>
+        <v>39.34126210747059</v>
       </c>
       <c r="Y7" t="n">
-        <v>69.06423758569977</v>
+        <v>39.34126210747059</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>277.058838278528</v>
+        <v>148.7966036865554</v>
       </c>
       <c r="C8" t="n">
-        <v>208.214279784371</v>
+        <v>121.5588216556934</v>
       </c>
       <c r="D8" t="n">
-        <v>208.214279784371</v>
+        <v>121.5588216556934</v>
       </c>
       <c r="E8" t="n">
+        <v>121.5588216556934</v>
+      </c>
+      <c r="F8" t="n">
         <v>114.6133209064899</v>
       </c>
-      <c r="F8" t="n">
-        <v>21.01236202860883</v>
-      </c>
       <c r="G8" t="n">
-        <v>7.413195943128183</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="H8" t="n">
-        <v>7.413195943128183</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="I8" t="n">
         <v>7.413195943128183</v>
@@ -4808,7 +4808,7 @@
         <v>21.18357364821455</v>
       </c>
       <c r="L8" t="n">
-        <v>75.16870670940376</v>
+        <v>75.16870670940378</v>
       </c>
       <c r="M8" t="n">
         <v>166.907006505615</v>
@@ -4826,28 +4826,28 @@
         <v>370.6597971564091</v>
       </c>
       <c r="R8" t="n">
-        <v>370.6597971564091</v>
+        <v>335.9985214423176</v>
       </c>
       <c r="S8" t="n">
-        <v>370.6597971564091</v>
+        <v>242.3975625644365</v>
       </c>
       <c r="T8" t="n">
-        <v>370.6597971564091</v>
+        <v>148.7966036865554</v>
       </c>
       <c r="U8" t="n">
-        <v>370.6597971564091</v>
+        <v>148.7966036865554</v>
       </c>
       <c r="V8" t="n">
-        <v>370.6597971564091</v>
+        <v>148.7966036865554</v>
       </c>
       <c r="W8" t="n">
-        <v>370.6597971564091</v>
+        <v>148.7966036865554</v>
       </c>
       <c r="X8" t="n">
-        <v>370.6597971564091</v>
+        <v>148.7966036865554</v>
       </c>
       <c r="Y8" t="n">
-        <v>370.6597971564091</v>
+        <v>148.7966036865554</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.413195943128183</v>
+        <v>331.2175662458446</v>
       </c>
       <c r="C9" t="n">
-        <v>7.413195943128183</v>
+        <v>331.2175662458446</v>
       </c>
       <c r="D9" t="n">
-        <v>7.413195943128183</v>
+        <v>331.2175662458446</v>
       </c>
       <c r="E9" t="n">
-        <v>7.413195943128183</v>
+        <v>250.6847842720874</v>
       </c>
       <c r="F9" t="n">
-        <v>7.413195943128183</v>
+        <v>157.0838253942063</v>
       </c>
       <c r="G9" t="n">
-        <v>7.413195943128183</v>
+        <v>63.48286651632522</v>
       </c>
       <c r="H9" t="n">
-        <v>7.413195943128183</v>
+        <v>63.48286651632522</v>
       </c>
       <c r="I9" t="n">
         <v>7.413195943128183</v>
@@ -4890,7 +4890,7 @@
         <v>102.6982772648968</v>
       </c>
       <c r="M9" t="n">
-        <v>194.436577061108</v>
+        <v>134.8197310560415</v>
       </c>
       <c r="N9" t="n">
         <v>226.5580308522527</v>
@@ -4905,28 +4905,28 @@
         <v>370.6597971564091</v>
       </c>
       <c r="R9" t="n">
-        <v>370.6597971564091</v>
+        <v>331.2175662458446</v>
       </c>
       <c r="S9" t="n">
-        <v>370.6597971564091</v>
+        <v>331.2175662458446</v>
       </c>
       <c r="T9" t="n">
-        <v>277.058838278528</v>
+        <v>331.2175662458446</v>
       </c>
       <c r="U9" t="n">
-        <v>277.058838278528</v>
+        <v>331.2175662458446</v>
       </c>
       <c r="V9" t="n">
-        <v>277.058838278528</v>
+        <v>331.2175662458446</v>
       </c>
       <c r="W9" t="n">
-        <v>194.6151136988904</v>
+        <v>331.2175662458446</v>
       </c>
       <c r="X9" t="n">
-        <v>101.0141548210093</v>
+        <v>331.2175662458446</v>
       </c>
       <c r="Y9" t="n">
-        <v>101.0141548210093</v>
+        <v>331.2175662458446</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>101.0141548210093</v>
+        <v>353.4216616833734</v>
       </c>
       <c r="C10" t="n">
-        <v>101.0141548210093</v>
+        <v>353.4216616833734</v>
       </c>
       <c r="D10" t="n">
-        <v>101.0141548210093</v>
+        <v>259.8207028054923</v>
       </c>
       <c r="E10" t="n">
-        <v>7.413195943128183</v>
+        <v>166.2197439276111</v>
       </c>
       <c r="F10" t="n">
-        <v>7.413195943128183</v>
+        <v>72.61878504973005</v>
       </c>
       <c r="G10" t="n">
         <v>7.413195943128183</v>
@@ -4963,7 +4963,7 @@
         <v>7.413195943128183</v>
       </c>
       <c r="K10" t="n">
-        <v>7.413195943128183</v>
+        <v>80.27683974481521</v>
       </c>
       <c r="L10" t="n">
         <v>95.44489776777534</v>
@@ -4981,31 +4981,31 @@
         <v>370.6597971564091</v>
       </c>
       <c r="Q10" t="n">
-        <v>370.6597971564091</v>
+        <v>353.4216616833734</v>
       </c>
       <c r="R10" t="n">
-        <v>277.058838278528</v>
+        <v>353.4216616833734</v>
       </c>
       <c r="S10" t="n">
-        <v>277.058838278528</v>
+        <v>353.4216616833734</v>
       </c>
       <c r="T10" t="n">
-        <v>277.058838278528</v>
+        <v>353.4216616833734</v>
       </c>
       <c r="U10" t="n">
-        <v>277.058838278528</v>
+        <v>353.4216616833734</v>
       </c>
       <c r="V10" t="n">
-        <v>277.058838278528</v>
+        <v>353.4216616833734</v>
       </c>
       <c r="W10" t="n">
-        <v>277.058838278528</v>
+        <v>353.4216616833734</v>
       </c>
       <c r="X10" t="n">
-        <v>277.058838278528</v>
+        <v>353.4216616833734</v>
       </c>
       <c r="Y10" t="n">
-        <v>194.6151136988904</v>
+        <v>353.4216616833734</v>
       </c>
     </row>
     <row r="11">
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2232.598233480554</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C11" t="n">
-        <v>1863.635716540142</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296686</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>3009.337405520488</v>
+        <v>3121.960685029207</v>
       </c>
       <c r="V11" t="n">
-        <v>3009.337405520488</v>
+        <v>3121.960685029207</v>
       </c>
       <c r="W11" t="n">
-        <v>3009.337405520488</v>
+        <v>2769.192029759092</v>
       </c>
       <c r="X11" t="n">
-        <v>3009.337405520488</v>
+        <v>2395.726271498012</v>
       </c>
       <c r="Y11" t="n">
-        <v>2619.198073544676</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="12">
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>456.9449278938906</v>
+        <v>980.7518458718754</v>
       </c>
       <c r="C13" t="n">
-        <v>456.9449278938906</v>
+        <v>811.8156629439685</v>
       </c>
       <c r="D13" t="n">
-        <v>456.9449278938906</v>
+        <v>661.6990235316327</v>
       </c>
       <c r="E13" t="n">
-        <v>456.9449278938906</v>
+        <v>513.7859299492396</v>
       </c>
       <c r="F13" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
         <v>310.0549803959803</v>
@@ -5221,28 +5221,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U13" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V13" t="n">
-        <v>1356.675339798491</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W13" t="n">
-        <v>1067.25816976153</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X13" t="n">
-        <v>839.2686188635128</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="Y13" t="n">
-        <v>618.4760397199826</v>
+        <v>1162.400310702115</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2197.08954985263</v>
+        <v>2313.039625065619</v>
       </c>
       <c r="C14" t="n">
-        <v>1828.127032912218</v>
+        <v>1944.077108125207</v>
       </c>
       <c r="D14" t="n">
-        <v>1469.861334305468</v>
+        <v>1585.811409518456</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.528589613197</v>
+        <v>1200.023156920212</v>
       </c>
       <c r="F14" t="n">
-        <v>801.5426848235895</v>
+        <v>789.0372521306047</v>
       </c>
       <c r="G14" t="n">
-        <v>387.2352036347373</v>
+        <v>374.7297709417525</v>
       </c>
       <c r="H14" t="n">
-        <v>97.48584166810105</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I14" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K14" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L14" t="n">
         <v>1336.032957050963</v>
@@ -5291,7 +5291,7 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O14" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P14" t="n">
         <v>3813.656640612704</v>
@@ -5309,19 +5309,19 @@
         <v>3953.532414632629</v>
       </c>
       <c r="U14" t="n">
-        <v>3700.063135423758</v>
+        <v>3953.532414632629</v>
       </c>
       <c r="V14" t="n">
-        <v>3700.063135423758</v>
+        <v>3816.013210636746</v>
       </c>
       <c r="W14" t="n">
-        <v>3347.294480153643</v>
+        <v>3463.244555366632</v>
       </c>
       <c r="X14" t="n">
-        <v>2973.828721892563</v>
+        <v>3089.778797105552</v>
       </c>
       <c r="Y14" t="n">
-        <v>2583.689389916752</v>
+        <v>2699.639465129741</v>
       </c>
     </row>
     <row r="15">
@@ -5358,16 +5358,16 @@
         <v>84.98040897511625</v>
       </c>
       <c r="K15" t="n">
-        <v>388.0214583249807</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="L15" t="n">
-        <v>388.0214583249807</v>
+        <v>301.7509472448909</v>
       </c>
       <c r="M15" t="n">
-        <v>936.9399229352698</v>
+        <v>850.66941185518</v>
       </c>
       <c r="N15" t="n">
-        <v>1514.795270861672</v>
+        <v>1428.524759781582</v>
       </c>
       <c r="O15" t="n">
         <v>1934.929714729833</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>658.3994885375672</v>
+        <v>335.1441411914589</v>
       </c>
       <c r="C16" t="n">
-        <v>489.4633056096603</v>
+        <v>252.340106857179</v>
       </c>
       <c r="D16" t="n">
-        <v>339.3466661973246</v>
+        <v>252.340106857179</v>
       </c>
       <c r="E16" t="n">
-        <v>339.3466661973246</v>
+        <v>252.340106857179</v>
       </c>
       <c r="F16" t="n">
-        <v>339.3466661973246</v>
+        <v>252.340106857179</v>
       </c>
       <c r="G16" t="n">
-        <v>171.9869683152618</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="H16" t="n">
-        <v>171.9869683152618</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I16" t="n">
         <v>84.98040897511625</v>
@@ -5467,19 +5467,19 @@
         <v>1798.760544521729</v>
       </c>
       <c r="U16" t="n">
-        <v>1798.760544521729</v>
+        <v>1509.676394306094</v>
       </c>
       <c r="V16" t="n">
-        <v>1544.076056315842</v>
+        <v>1254.991906100207</v>
       </c>
       <c r="W16" t="n">
-        <v>1254.658886278881</v>
+        <v>965.5747360632461</v>
       </c>
       <c r="X16" t="n">
-        <v>1026.669335380864</v>
+        <v>737.5851851652287</v>
       </c>
       <c r="Y16" t="n">
-        <v>805.876756237334</v>
+        <v>516.7926060216986</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>725.1782574796675</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
         <v>84.98040897511625</v>
@@ -5513,7 +5513,7 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K17" t="n">
         <v>766.6831886951454</v>
@@ -5525,7 +5525,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O17" t="n">
         <v>3311.067850233288</v>
@@ -5543,19 +5543,19 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y17" t="n">
         <v>2476.13298385146</v>
@@ -5601,16 +5601,16 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M18" t="n">
-        <v>1453.289737812102</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N18" t="n">
-        <v>1453.289737812102</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O18" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P18" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q18" t="n">
         <v>2555.644190323788</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502105</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477722</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D19" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H19" t="n">
         <v>140.0574709897932</v>
@@ -5674,31 +5674,31 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443629</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902804</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040895</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354975</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313937</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.45563102869</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T19" t="n">
         <v>2144.901839127669</v>
@@ -5716,7 +5716,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D20" t="n">
         <v>1458.093420216582</v>
@@ -5741,19 +5741,19 @@
         <v>725.1782574796675</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K20" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L20" t="n">
         <v>1336.032957050963</v>
@@ -5765,37 +5765,37 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437416</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501805</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851462</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5823,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J21" t="n">
         <v>216.557510983586</v>
@@ -5838,19 +5838,19 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M21" t="n">
-        <v>1059.51735386646</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1637.372701792862</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O21" t="n">
-        <v>2143.777656741112</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P21" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5905,16 +5905,16 @@
         <v>140.0574709897932</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042791</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443618</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L22" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M22" t="n">
         <v>1285.552079040894</v>
@@ -5929,7 +5929,7 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R22" t="n">
         <v>2487.049233352543</v>
@@ -5938,10 +5938,10 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V22" t="n">
         <v>1664.992195357084</v>
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076838</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
@@ -5999,40 +5999,40 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889757</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437416</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J24" t="n">
         <v>216.557510983586</v>
       </c>
       <c r="K24" t="n">
-        <v>519.5985603334506</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L24" t="n">
-        <v>973.3971899277781</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.315654538068</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>2100.17100246447</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O24" t="n">
-        <v>2100.17100246447</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P24" t="n">
-        <v>2487.272558016626</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
         <v>2555.644190323788</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502105</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477722</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D25" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H25" t="n">
         <v>140.0574709897932</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J25" t="n">
         <v>185.1742787042785</v>
@@ -6151,10 +6151,10 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N25" t="n">
         <v>1709.719201354973</v>
@@ -6166,13 +6166,13 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
         <v>2144.901839127669</v>
@@ -6190,7 +6190,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796684</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G26" t="n">
         <v>342.8002736162839</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076834</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050963</v>
@@ -6236,7 +6236,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O26" t="n">
         <v>3311.067850233288</v>
@@ -6245,31 +6245,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511626</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>388.0214583249808</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L27" t="n">
-        <v>841.8200879193082</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M27" t="n">
-        <v>1390.738552529598</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>1968.593900456</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O27" t="n">
-        <v>1968.593900456</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P27" t="n">
-        <v>2355.695456008156</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477723</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749446</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042781</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443608</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N28" t="n">
         <v>1709.719201354973</v>
@@ -6403,7 +6403,7 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R28" t="n">
         <v>2487.049233352543</v>
@@ -6412,7 +6412,7 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U28" t="n">
         <v>1887.747186237502</v>
@@ -6427,7 +6427,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D29" t="n">
         <v>1458.093420216582</v>
@@ -6452,7 +6452,7 @@
         <v>725.1782574796671</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162838</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H29" t="n">
         <v>84.98040897511625</v>
@@ -6461,10 +6461,10 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076838</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L29" t="n">
         <v>1336.032957050963</v>
@@ -6473,7 +6473,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O29" t="n">
         <v>3311.067850233288</v>
@@ -6488,22 +6488,22 @@
         <v>4249.020448755812</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y29" t="n">
         <v>2476.13298385146</v>
@@ -6534,7 +6534,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
         <v>84.98040897511625</v>
@@ -6543,25 +6543,25 @@
         <v>216.557510983586</v>
       </c>
       <c r="K30" t="n">
-        <v>519.5985603334506</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L30" t="n">
-        <v>808.1559021931406</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M30" t="n">
-        <v>1357.07436680343</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1934.929714729833</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477723</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G31" t="n">
         <v>251.2943450749445</v>
@@ -6622,13 +6622,13 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
         <v>1709.719201354974</v>
@@ -6640,13 +6640,13 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
         <v>2144.901839127669</v>
@@ -6658,13 +6658,13 @@
         <v>1664.992195357084</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X31" t="n">
         <v>1211.444469073043</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D32" t="n">
         <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J32" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889757</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P32" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y32" t="n">
         <v>2476.13298385146</v>
@@ -6774,28 +6774,28 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J33" t="n">
-        <v>84.98040897511626</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K33" t="n">
-        <v>388.0214583249808</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L33" t="n">
-        <v>841.8200879193082</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M33" t="n">
-        <v>1390.738552529598</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
         <v>2555.644190323788</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477723</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042792</v>
+        <v>185.1742787042779</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443619</v>
+        <v>459.5287020443607</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902794</v>
+        <v>857.3827676902782</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1104.234664943807</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796681</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162844</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511675</v>
       </c>
       <c r="I35" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N35" t="n">
         <v>2681.771598889755</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P35" t="n">
         <v>3813.656640612704</v>
@@ -7008,34 +7008,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I36" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J36" t="n">
-        <v>122.7666162271011</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K36" t="n">
-        <v>425.8076655769656</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L36" t="n">
-        <v>879.606295171293</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M36" t="n">
-        <v>1428.524759781582</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C37" t="n">
         <v>735.8557341477722</v>
       </c>
       <c r="D37" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039806</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H37" t="n">
         <v>140.0574709897932</v>
@@ -7105,7 +7105,7 @@
         <v>1285.552079040894</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
         <v>2087.878830313936</v>
@@ -7120,25 +7120,25 @@
         <v>2487.049233352543</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216584</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943808</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
         <v>725.1782574796675</v>
@@ -7166,58 +7166,58 @@
         <v>342.8002736162839</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951459</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889757</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437416</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501805</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.132983851462</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>519.5985603334506</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L39" t="n">
-        <v>973.3971899277781</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.315654538068</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>2100.17100246447</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>2100.17100246447</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477715</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G40" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H40" t="n">
         <v>140.0574709897932</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N40" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
         <v>2529.521427597205</v>
@@ -7360,13 +7360,13 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U40" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W40" t="n">
         <v>1407.504522645591</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216584</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943808</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O41" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437416</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501805</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851462</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J42" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>235.0538732027188</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L42" t="n">
-        <v>688.8525027970462</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.770967407336</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1815.626315333738</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502114</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477731</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D43" t="n">
-        <v>617.668592060906</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039815</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315397</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749453</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
         <v>185.1742787042783</v>
@@ -7573,10 +7573,10 @@
         <v>459.5287020443611</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N43" t="n">
         <v>1709.719201354973</v>
@@ -7588,31 +7588,31 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597207</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357085</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645593</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H44" t="n">
         <v>84.98040897511622</v>
@@ -7646,10 +7646,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951452</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L44" t="n">
         <v>1336.032957050963</v>
@@ -7658,16 +7658,16 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R44" t="n">
         <v>4249.020448755811</v>
@@ -7676,22 +7676,22 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W44" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="45">
@@ -7719,13 +7719,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177173</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I45" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
         <v>519.5985603334505</v>
@@ -7734,19 +7734,19 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.770967407336</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1815.626315333738</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C46" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897932</v>
@@ -7804,13 +7804,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
         <v>459.5287020443612</v>
       </c>
       <c r="L46" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040894</v>
@@ -7843,7 +7843,7 @@
         <v>1664.992195357084</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X46" t="n">
         <v>1211.444469073043</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>61.91487447970159</v>
+        <v>52.84403871183648</v>
       </c>
       <c r="K5" t="n">
-        <v>27.94848709386878</v>
+        <v>27.94848709386847</v>
       </c>
       <c r="L5" t="n">
-        <v>32.28255003897607</v>
+        <v>32.28255003897608</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>9.070835767864843</v>
       </c>
       <c r="P5" t="n">
-        <v>14.02109506150219</v>
+        <v>14.02109506150182</v>
       </c>
       <c r="Q5" t="n">
-        <v>59.18859846499325</v>
+        <v>59.18859846499299</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.48147365804743</v>
+        <v>50.48147365804731</v>
       </c>
       <c r="K6" t="n">
-        <v>7.336611653513387</v>
+        <v>7.336611653513188</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>36.81713562156514</v>
+        <v>36.81713562156497</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>50.2932622514179</v>
+        <v>50.29326225141777</v>
       </c>
       <c r="L7" t="n">
-        <v>69.03467120274132</v>
+        <v>69.03467120274158</v>
       </c>
       <c r="M7" t="n">
-        <v>67.59987304969533</v>
+        <v>67.59987304969557</v>
       </c>
       <c r="N7" t="n">
-        <v>57.47560520934985</v>
+        <v>58.88507944579297</v>
       </c>
       <c r="O7" t="n">
-        <v>77.57119039297091</v>
+        <v>76.16171615652829</v>
       </c>
       <c r="P7" t="n">
-        <v>55.78036510486446</v>
+        <v>55.78036510486432</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8611,10 +8611,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>33.14412614092826</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>101.1261048042554</v>
+        <v>27.52646460053114</v>
       </c>
       <c r="M10" t="n">
         <v>102.2424199670269</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>-2.557953848736361e-13</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>211.8295570749217</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>13.99090544362082</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>93.90691564990114</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>111.4435131414768</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>49.38648674473723</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.91617947410623</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>109.7532162242327</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>127.1709528269139</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,10 +23549,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9345864167828</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>191.6082465142113</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.82948515916817</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>85.27082710769081</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23671,7 +23671,7 @@
         <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1933087134791</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-5.456138092421898e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -26314,37 +26314,37 @@
         <v>57981.63991445708</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982121</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982123</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="E2" t="n">
-        <v>51149.56484563809</v>
+        <v>51149.5648456381</v>
       </c>
       <c r="F2" t="n">
         <v>57505.73864634828</v>
       </c>
       <c r="G2" t="n">
-        <v>61578.13273982134</v>
+        <v>61578.13273982133</v>
       </c>
       <c r="H2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982133</v>
       </c>
       <c r="I2" t="n">
+        <v>61578.1327398213</v>
+      </c>
+      <c r="J2" t="n">
+        <v>61578.13273982129</v>
+      </c>
+      <c r="K2" t="n">
+        <v>61578.1327398213</v>
+      </c>
+      <c r="L2" t="n">
         <v>61578.13273982132</v>
       </c>
-      <c r="J2" t="n">
-        <v>61578.13273982128</v>
-      </c>
-      <c r="K2" t="n">
-        <v>61578.13273982133</v>
-      </c>
-      <c r="L2" t="n">
-        <v>61578.13273982133</v>
-      </c>
       <c r="M2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="N2" t="n">
         <v>61578.13273982125</v>
@@ -26353,7 +26353,7 @@
         <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982129</v>
+        <v>61578.1327398213</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>314444.4864346</v>
       </c>
       <c r="C3" t="n">
-        <v>56271.05156263467</v>
+        <v>56271.05156263537</v>
       </c>
       <c r="D3" t="n">
-        <v>88049.46972945775</v>
+        <v>88049.46972945709</v>
       </c>
       <c r="E3" t="n">
-        <v>728470.1008399348</v>
+        <v>728470.1008399349</v>
       </c>
       <c r="F3" t="n">
         <v>215052.1096963081</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177111</v>
+        <v>25288.1618817711</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8978.150740799339</v>
+        <v>8978.15074079956</v>
       </c>
       <c r="L3" t="n">
-        <v>39911.87677390433</v>
+        <v>39911.87677390419</v>
       </c>
       <c r="M3" t="n">
-        <v>184096.0922694314</v>
+        <v>184096.0922694315</v>
       </c>
       <c r="N3" t="n">
-        <v>56542.29359578642</v>
+        <v>56542.29359578629</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>329746.2345099981</v>
       </c>
       <c r="C4" t="n">
-        <v>339958.0729421578</v>
+        <v>339958.0729421576</v>
       </c>
       <c r="D4" t="n">
         <v>312030.0719413564</v>
@@ -26430,34 +26430,34 @@
         <v>14159.48578887614</v>
       </c>
       <c r="G4" t="n">
-        <v>45229.37087109616</v>
+        <v>45229.37087109617</v>
       </c>
       <c r="H4" t="n">
-        <v>45229.37087109613</v>
+        <v>45229.37087109617</v>
       </c>
       <c r="I4" t="n">
         <v>45229.37087109617</v>
       </c>
       <c r="J4" t="n">
-        <v>45229.37087109612</v>
+        <v>45229.37087109614</v>
       </c>
       <c r="K4" t="n">
         <v>45229.37087109612</v>
       </c>
       <c r="L4" t="n">
-        <v>45229.37087109612</v>
+        <v>45229.37087109619</v>
       </c>
       <c r="M4" t="n">
-        <v>45229.37087109612</v>
+        <v>45229.37087109616</v>
       </c>
       <c r="N4" t="n">
-        <v>45229.37087109608</v>
+        <v>45229.37087109617</v>
       </c>
       <c r="O4" t="n">
-        <v>45229.37087109606</v>
+        <v>45229.37087109618</v>
       </c>
       <c r="P4" t="n">
-        <v>45229.37087109614</v>
+        <v>45229.37087109615</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>40741.33736580378</v>
       </c>
       <c r="C5" t="n">
-        <v>43939.64495097123</v>
+        <v>43939.64495097126</v>
       </c>
       <c r="D5" t="n">
         <v>49237.11966583622</v>
@@ -26479,7 +26479,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>92448.99600060702</v>
+        <v>92448.99600060703</v>
       </c>
       <c r="G5" t="n">
         <v>95106.4341021553</v>
@@ -26488,25 +26488,25 @@
         <v>95106.4341021553</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.43410215531</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="J5" t="n">
-        <v>95106.43410215531</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="K5" t="n">
         <v>95106.4341021553</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.43410215531</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="M5" t="n">
         <v>95106.4341021553</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.43410215531</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.43410215531</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="P5" t="n">
         <v>95106.43410215528</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-626950.4183959448</v>
+        <v>-627070.3014901236</v>
       </c>
       <c r="C6" t="n">
-        <v>-378590.6367159425</v>
+        <v>-378590.636715943</v>
       </c>
       <c r="D6" t="n">
-        <v>-387738.5285968292</v>
+        <v>-387738.5285968285</v>
       </c>
       <c r="E6" t="n">
-        <v>-765666.8874128676</v>
+        <v>-766014.5063426738</v>
       </c>
       <c r="F6" t="n">
-        <v>-264154.852839443</v>
+        <v>-264290.5993092254</v>
       </c>
       <c r="G6" t="n">
         <v>-104045.8341152012</v>
       </c>
       <c r="H6" t="n">
-        <v>-78757.67223343017</v>
+        <v>-78757.67223343014</v>
       </c>
       <c r="I6" t="n">
         <v>-78757.67223343016</v>
@@ -26546,22 +26546,22 @@
         <v>-78757.67223343014</v>
       </c>
       <c r="K6" t="n">
-        <v>-87735.82297422944</v>
+        <v>-87735.82297422968</v>
       </c>
       <c r="L6" t="n">
         <v>-118669.5490073344</v>
       </c>
       <c r="M6" t="n">
-        <v>-262853.7645028616</v>
+        <v>-262853.7645028617</v>
       </c>
       <c r="N6" t="n">
-        <v>-135299.9658292166</v>
+        <v>-135299.9658292165</v>
       </c>
       <c r="O6" t="n">
-        <v>-78757.67223343012</v>
+        <v>-78757.6722334302</v>
       </c>
       <c r="P6" t="n">
-        <v>-78757.67223343003</v>
+        <v>-78757.67223343014</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26695,37 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
-        <v>375.7370697234873</v>
+        <v>375.7370697234879</v>
       </c>
       <c r="D3" t="n">
         <v>457.5913187641656</v>
@@ -26790,13 +26790,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.88448735196061</v>
+        <v>34.88448735196103</v>
       </c>
       <c r="D4" t="n">
         <v>92.66494928910228</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>1062.255112188953</v>
@@ -26917,10 +26917,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
-        <v>49.41884193432304</v>
+        <v>49.41884193432367</v>
       </c>
       <c r="D3" t="n">
-        <v>81.85424904067827</v>
+        <v>81.85424904067764</v>
       </c>
       <c r="E3" t="n">
         <v>632.1853818291327</v>
@@ -27012,16 +27012,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.88448735196061</v>
+        <v>34.88448735196103</v>
       </c>
       <c r="D4" t="n">
-        <v>57.78046193714169</v>
+        <v>57.78046193714125</v>
       </c>
       <c r="E4" t="n">
-        <v>738.7365061131903</v>
+        <v>738.7365061131904</v>
       </c>
       <c r="F4" t="n">
-        <v>230.8536567866604</v>
+        <v>230.8536567866603</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>34.88448735196038</v>
+        <v>34.88448735196124</v>
       </c>
       <c r="L4" t="n">
-        <v>57.78046193714204</v>
+        <v>57.78046193714125</v>
       </c>
       <c r="M4" t="n">
-        <v>738.7365061131901</v>
+        <v>738.7365061131904</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866606</v>
+        <v>230.8536567866601</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>34.88448735196061</v>
+        <v>34.88448735196103</v>
       </c>
       <c r="L4" t="n">
-        <v>57.78046193714169</v>
+        <v>57.78046193714125</v>
       </c>
       <c r="M4" t="n">
-        <v>738.7365061131903</v>
+        <v>738.7365061131904</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866604</v>
+        <v>230.8536567866603</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170.9042845885589</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>326.0400019133721</v>
+        <v>232.1330862634709</v>
       </c>
       <c r="I2" t="n">
-        <v>159.9014836333536</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>251.2407063421153</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>289.1208986218742</v>
+        <v>324.0053859738348</v>
       </c>
       <c r="I5" t="n">
-        <v>142.1843341556325</v>
+        <v>152.2423081412008</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.98512314308732</v>
+        <v>20.10063579112614</v>
       </c>
       <c r="S5" t="n">
-        <v>174.5995329980083</v>
+        <v>174.5995329980082</v>
       </c>
       <c r="T5" t="n">
-        <v>181.5991450354288</v>
+        <v>216.4836323873894</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2248128452119</v>
+        <v>216.3403254932508</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>292.8677711181739</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>334.8466133265084</v>
+        <v>359.6731266929003</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>131.6486962979063</v>
       </c>
       <c r="C6" t="n">
-        <v>141.9822425287088</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>112.5605782126781</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>114.3429559337766</v>
       </c>
       <c r="G6" t="n">
         <v>136.5353279943714</v>
       </c>
       <c r="H6" t="n">
-        <v>69.54555096443096</v>
+        <v>104.4300383163915</v>
       </c>
       <c r="I6" t="n">
-        <v>61.57082155585493</v>
+        <v>61.57082155585488</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.97921189787249</v>
+        <v>15.09472454591138</v>
       </c>
       <c r="S6" t="n">
         <v>156.6714117615834</v>
@@ -27749,7 +27749,7 @@
         <v>196.9071591941057</v>
       </c>
       <c r="U6" t="n">
-        <v>191.003724388959</v>
+        <v>191.0037243889586</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>149.1057237223304</v>
+        <v>178.5314694457778</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,13 +27789,13 @@
         <v>167.3134207081377</v>
       </c>
       <c r="H7" t="n">
-        <v>121.3185727917155</v>
+        <v>156.2030601436761</v>
       </c>
       <c r="I7" t="n">
-        <v>135.0744384248764</v>
+        <v>135.0744384248763</v>
       </c>
       <c r="J7" t="n">
-        <v>45.45578353897506</v>
+        <v>10.57129618701396</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.4257457234478</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.8278906090979</v>
+        <v>146.8278906090978</v>
       </c>
       <c r="S7" t="n">
-        <v>177.324111297144</v>
+        <v>177.3241112971436</v>
       </c>
       <c r="T7" t="n">
         <v>225.0505661041825</v>
       </c>
       <c r="U7" t="n">
-        <v>251.3975842599673</v>
+        <v>286.2820716119279</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>251.63851098463</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>290.0688923743783</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>297.1167788617921</v>
+        <v>338.3074875604542</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>289.2654207831595</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>314.2110964526091</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>320.6353766150897</v>
       </c>
       <c r="I8" t="n">
-        <v>139.5561335235496</v>
+        <v>46.89118423444737</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>34.31466295695061</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>167.1010256612668</v>
+        <v>74.43607637216446</v>
       </c>
       <c r="T8" t="n">
-        <v>215.0431621354273</v>
+        <v>122.378212846325</v>
       </c>
       <c r="U8" t="n">
         <v>251.1984878605957</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>73.86823436076506</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27938,19 +27938,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>77.91762630138136</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>52.4042631042816</v>
       </c>
       <c r="G9" t="n">
-        <v>136.3592641379443</v>
+        <v>43.69431484884203</v>
       </c>
       <c r="H9" t="n">
         <v>102.729632124056</v>
       </c>
       <c r="I9" t="n">
-        <v>55.50897386746507</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>39.04780860145888</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>153.4011028494393</v>
       </c>
       <c r="T9" t="n">
-        <v>103.5325490100187</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U9" t="n">
         <v>225.8766285924705</v>
@@ -27992,10 +27992,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>170.0756958270783</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>113.1080359143752</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>87.16703089283502</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>55.95052372911007</v>
       </c>
       <c r="E10" t="n">
         <v>53.76901335746689</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>52.75609873382896</v>
       </c>
       <c r="G10" t="n">
-        <v>167.1658146852775</v>
+        <v>102.6122814697416</v>
       </c>
       <c r="H10" t="n">
         <v>154.8907084131551</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>17.06575411830538</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>47.5260377830252</v>
+        <v>140.1909870721275</v>
       </c>
       <c r="S10" t="n">
         <v>209.6362282325312</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>136.9653660182535</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605494</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221557</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605494</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221423</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I26" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I29" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221457</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I32" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221456</v>
+        <v>31.61020235221328</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221332</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I35" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221247</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I38" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221429</v>
       </c>
       <c r="W38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221247</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="I41" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I44" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.510500782807988</v>
+        <v>1.510500782807991</v>
       </c>
       <c r="H5" t="n">
-        <v>15.46941614193231</v>
+        <v>15.46941614193234</v>
       </c>
       <c r="I5" t="n">
-        <v>58.23358142920502</v>
+        <v>58.23358142920511</v>
       </c>
       <c r="J5" t="n">
-        <v>128.2018658148496</v>
+        <v>128.2018658148498</v>
       </c>
       <c r="K5" t="n">
-        <v>192.1413639511118</v>
+        <v>192.1413639511121</v>
       </c>
       <c r="L5" t="n">
-        <v>238.3683522829718</v>
+        <v>238.3683522829722</v>
       </c>
       <c r="M5" t="n">
-        <v>265.2307205792333</v>
+        <v>265.2307205792338</v>
       </c>
       <c r="N5" t="n">
-        <v>264.2975509485515</v>
+        <v>264.2975509485519</v>
       </c>
       <c r="O5" t="n">
-        <v>254.5023887693396</v>
+        <v>254.50238876934</v>
       </c>
       <c r="P5" t="n">
-        <v>217.2119006937673</v>
+        <v>217.2119006937677</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.1170914094562</v>
+        <v>163.1170914094565</v>
       </c>
       <c r="R5" t="n">
-        <v>94.88399479806236</v>
+        <v>94.88399479806252</v>
       </c>
       <c r="S5" t="n">
-        <v>34.42053658823706</v>
+        <v>34.42053658823712</v>
       </c>
       <c r="T5" t="n">
-        <v>6.612217176741971</v>
+        <v>6.612217176741982</v>
       </c>
       <c r="U5" t="n">
-        <v>0.120840062624639</v>
+        <v>0.1208400626246392</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8081891688391991</v>
+        <v>0.8081891688392004</v>
       </c>
       <c r="H6" t="n">
-        <v>7.805405920104898</v>
+        <v>7.805405920104911</v>
       </c>
       <c r="I6" t="n">
-        <v>27.82581129556015</v>
+        <v>27.8258112955602</v>
       </c>
       <c r="J6" t="n">
-        <v>76.35615300861926</v>
+        <v>76.35615300861939</v>
       </c>
       <c r="K6" t="n">
-        <v>130.5048273208456</v>
+        <v>130.5048273208458</v>
       </c>
       <c r="L6" t="n">
-        <v>151.6751159548053</v>
+        <v>173.4388671318352</v>
       </c>
       <c r="M6" t="n">
-        <v>177.0185212739789</v>
+        <v>177.0185212739793</v>
       </c>
       <c r="N6" t="n">
-        <v>166.2261994352939</v>
+        <v>166.2261994352943</v>
       </c>
       <c r="O6" t="n">
-        <v>177.4807317964051</v>
+        <v>155.7169806193757</v>
       </c>
       <c r="P6" t="n">
-        <v>154.3286843549169</v>
+        <v>154.3286843549172</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.1646384644564</v>
+        <v>103.1646384644565</v>
       </c>
       <c r="R6" t="n">
-        <v>50.17862225477064</v>
+        <v>50.17862225477073</v>
       </c>
       <c r="S6" t="n">
-        <v>15.01175934225441</v>
+        <v>15.01175934225444</v>
       </c>
       <c r="T6" t="n">
-        <v>3.257569500715893</v>
+        <v>3.257569500715899</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05317034005521049</v>
+        <v>0.05317034005521058</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6775586503210426</v>
+        <v>0.6775586503210438</v>
       </c>
       <c r="H7" t="n">
-        <v>6.024112363763456</v>
+        <v>6.024112363763466</v>
       </c>
       <c r="I7" t="n">
-        <v>20.37603650238191</v>
+        <v>20.37603650238194</v>
       </c>
       <c r="J7" t="n">
-        <v>47.90339657769771</v>
+        <v>47.90339657769779</v>
       </c>
       <c r="K7" t="n">
-        <v>78.71999591911748</v>
+        <v>78.71999591911761</v>
       </c>
       <c r="L7" t="n">
-        <v>100.7344924304576</v>
+        <v>100.7344924304577</v>
       </c>
       <c r="M7" t="n">
-        <v>106.2103982498703</v>
+        <v>106.2103982498705</v>
       </c>
       <c r="N7" t="n">
-        <v>103.6849523714011</v>
+        <v>103.6849523714013</v>
       </c>
       <c r="O7" t="n">
-        <v>95.7698354108325</v>
+        <v>95.76983541083266</v>
       </c>
       <c r="P7" t="n">
-        <v>81.94763894428316</v>
+        <v>81.9476389442833</v>
       </c>
       <c r="Q7" t="n">
-        <v>56.73629752824658</v>
+        <v>56.73629752824667</v>
       </c>
       <c r="R7" t="n">
-        <v>30.4655007680716</v>
+        <v>30.46550076807165</v>
       </c>
       <c r="S7" t="n">
-        <v>11.80799938786762</v>
+        <v>11.80799938786764</v>
       </c>
       <c r="T7" t="n">
-        <v>2.895023324098999</v>
+        <v>2.895023324099004</v>
       </c>
       <c r="U7" t="n">
-        <v>0.036957744562966</v>
+        <v>0.03695774456296606</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31610,10 +31610,10 @@
         <v>213.7080965605662</v>
       </c>
       <c r="M9" t="n">
-        <v>234.7989832111206</v>
+        <v>174.5799468423665</v>
       </c>
       <c r="N9" t="n">
-        <v>163.7876250036815</v>
+        <v>224.0066613724356</v>
       </c>
       <c r="O9" t="n">
         <v>234.1788327264122</v>
@@ -32078,10 +32078,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>443.9435090247271</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>357.5145194463132</v>
       </c>
       <c r="M15" t="n">
         <v>696.597129487967</v>
@@ -32090,7 +32090,7 @@
         <v>715.033982716063</v>
       </c>
       <c r="O15" t="n">
-        <v>566.9744705738993</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P15" t="n">
         <v>524.9860796892351</v>
@@ -32321,19 +32321,19 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M18" t="n">
-        <v>626.873981279922</v>
+        <v>645.1509001052082</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O18" t="n">
         <v>654.1164009578284</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32558,13 +32558,13 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M21" t="n">
-        <v>229.1240985065456</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N21" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578284</v>
+        <v>211.6584993001647</v>
       </c>
       <c r="P21" t="n">
         <v>524.9860796892351</v>
@@ -32573,7 +32573,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486998</v>
@@ -32701,46 +32701,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H23" t="n">
-        <v>52.62293376879731</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I23" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L23" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N23" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O23" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R23" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S23" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T23" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,34 +32780,34 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H24" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J24" t="n">
-        <v>259.7437903115857</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K24" t="n">
-        <v>443.9435090247272</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L24" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M24" t="n">
-        <v>696.5971294879671</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N24" t="n">
-        <v>715.0339827160632</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P24" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>209.0440289417413</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32862,7 +32862,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I25" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J25" t="n">
         <v>162.9549067838147</v>
@@ -32871,13 +32871,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L25" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M25" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N25" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O25" t="n">
         <v>325.7840929246177</v>
@@ -32892,10 +32892,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -32938,46 +32938,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H26" t="n">
-        <v>52.62293376879731</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I26" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J26" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K26" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L26" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M26" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N26" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O26" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P26" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q26" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R26" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S26" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T26" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,37 +33017,37 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H27" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I27" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K27" t="n">
-        <v>443.9435090247272</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L27" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M27" t="n">
-        <v>696.5971294879671</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N27" t="n">
-        <v>715.0339827160632</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P27" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>316.9350632629023</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486998</v>
@@ -33099,7 +33099,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I28" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J28" t="n">
         <v>162.9549067838147</v>
@@ -33108,13 +33108,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L28" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M28" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N28" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O28" t="n">
         <v>325.7840929246177</v>
@@ -33129,10 +33129,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S28" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T28" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U28" t="n">
         <v>0.1257206430118155</v>
@@ -33175,46 +33175,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H29" t="n">
-        <v>52.62293376879731</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I29" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J29" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K29" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L29" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M29" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N29" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O29" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P29" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q29" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R29" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S29" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T29" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,37 +33254,37 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H30" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I30" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J30" t="n">
-        <v>259.7437903115857</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K30" t="n">
-        <v>443.9435090247272</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L30" t="n">
-        <v>430.0264422644096</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M30" t="n">
-        <v>696.5971294879671</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N30" t="n">
-        <v>715.0339827160632</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486998</v>
@@ -33336,7 +33336,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I31" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J31" t="n">
         <v>162.9549067838147</v>
@@ -33345,13 +33345,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L31" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M31" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N31" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O31" t="n">
         <v>325.7840929246177</v>
@@ -33366,10 +33366,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S31" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T31" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U31" t="n">
         <v>0.1257206430118155</v>
@@ -33412,46 +33412,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H32" t="n">
-        <v>52.62293376879731</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I32" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J32" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K32" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L32" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M32" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N32" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O32" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P32" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q32" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R32" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S32" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T32" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,34 +33491,34 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H33" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I33" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K33" t="n">
-        <v>443.9435090247272</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L33" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M33" t="n">
-        <v>696.5971294879671</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N33" t="n">
-        <v>194.5247275202068</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578285</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P33" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33573,7 +33573,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I34" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J34" t="n">
         <v>162.9549067838147</v>
@@ -33582,13 +33582,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L34" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M34" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N34" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O34" t="n">
         <v>325.7840929246177</v>
@@ -33603,10 +33603,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S34" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T34" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U34" t="n">
         <v>0.1257206430118155</v>
@@ -33649,46 +33649,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H35" t="n">
-        <v>52.62293376879731</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I35" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J35" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K35" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L35" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M35" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N35" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O35" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P35" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q35" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R35" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S35" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T35" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,37 +33728,37 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H36" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I36" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J36" t="n">
-        <v>165.0055127797827</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K36" t="n">
-        <v>443.9435090247272</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L36" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M36" t="n">
-        <v>696.5971294879671</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578285</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P36" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486998</v>
@@ -33810,7 +33810,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I37" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J37" t="n">
         <v>162.9549067838147</v>
@@ -33819,13 +33819,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L37" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M37" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N37" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O37" t="n">
         <v>325.7840929246177</v>
@@ -33840,10 +33840,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S37" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T37" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U37" t="n">
         <v>0.1257206430118155</v>
@@ -33886,46 +33886,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H38" t="n">
-        <v>52.62293376879731</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I38" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J38" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K38" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L38" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M38" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N38" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O38" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P38" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q38" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R38" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S38" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T38" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,37 +33965,37 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H39" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I39" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J39" t="n">
-        <v>259.7437903115857</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K39" t="n">
-        <v>443.9435090247272</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L39" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M39" t="n">
-        <v>696.5971294879671</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N39" t="n">
-        <v>715.0339827160632</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P39" t="n">
-        <v>358.0756880380862</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486998</v>
@@ -34047,7 +34047,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I40" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J40" t="n">
         <v>162.9549067838147</v>
@@ -34056,13 +34056,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L40" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M40" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N40" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O40" t="n">
         <v>325.7840929246177</v>
@@ -34077,10 +34077,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S40" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T40" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U40" t="n">
         <v>0.1257206430118155</v>
@@ -34123,46 +34123,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H41" t="n">
-        <v>52.62293376879731</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I41" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J41" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K41" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L41" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M41" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N41" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O41" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P41" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q41" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R41" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S41" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T41" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,37 +34202,37 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H42" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I42" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J42" t="n">
-        <v>259.7437903115857</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K42" t="n">
-        <v>156.5246331350991</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L42" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M42" t="n">
-        <v>696.5971294879671</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N42" t="n">
-        <v>715.0339827160632</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578285</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486998</v>
@@ -34284,7 +34284,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I43" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J43" t="n">
         <v>162.9549067838147</v>
@@ -34293,13 +34293,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L43" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M43" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N43" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O43" t="n">
         <v>325.7840929246177</v>
@@ -34314,10 +34314,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S43" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T43" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U43" t="n">
         <v>0.1257206430118155</v>
@@ -34360,46 +34360,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H44" t="n">
-        <v>52.62293376879731</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I44" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J44" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K44" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L44" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M44" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N44" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O44" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P44" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q44" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R44" t="n">
-        <v>322.7706933581541</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S44" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T44" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,37 +34439,37 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H45" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I45" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J45" t="n">
-        <v>259.7437903115857</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K45" t="n">
-        <v>443.9435090247272</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L45" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M45" t="n">
-        <v>409.1782535983392</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N45" t="n">
-        <v>715.0339827160632</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578285</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486998</v>
@@ -34521,7 +34521,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I46" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J46" t="n">
         <v>162.9549067838147</v>
@@ -34530,13 +34530,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L46" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M46" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N46" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O46" t="n">
         <v>325.7840929246177</v>
@@ -34551,10 +34551,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S46" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T46" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U46" t="n">
         <v>0.1257206430118155</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>9.070835767864887</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>34.88448735196061</v>
+        <v>34.88448735196103</v>
       </c>
       <c r="M5" t="n">
-        <v>34.88448735196059</v>
+        <v>34.88448735196104</v>
       </c>
       <c r="N5" t="n">
-        <v>34.88448735196061</v>
+        <v>34.88448735196103</v>
       </c>
       <c r="O5" t="n">
-        <v>24.40417734765288</v>
+        <v>33.47501311551814</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>13.12073617493109</v>
+        <v>34.88448735196103</v>
       </c>
       <c r="M6" t="n">
-        <v>34.88448735196061</v>
+        <v>34.88448735196103</v>
       </c>
       <c r="N6" t="n">
-        <v>34.88448735196061</v>
+        <v>34.88448735196103</v>
       </c>
       <c r="O6" t="n">
-        <v>34.88448735196061</v>
+        <v>13.12073617493125</v>
       </c>
       <c r="P6" t="n">
-        <v>20.35427694058666</v>
+        <v>20.35427694058691</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35097,16 +35097,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>34.88448735196061</v>
+        <v>34.88448735196103</v>
       </c>
       <c r="M7" t="n">
-        <v>34.88448735196061</v>
+        <v>34.88448735196103</v>
       </c>
       <c r="N7" t="n">
-        <v>33.47501311551774</v>
+        <v>34.88448735196103</v>
       </c>
       <c r="O7" t="n">
-        <v>34.88448735196061</v>
+        <v>33.47501311551816</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>75.15371678069204</v>
       </c>
       <c r="M9" t="n">
+        <v>32.44591292034816</v>
+      </c>
+      <c r="N9" t="n">
         <v>92.66494928910228</v>
-      </c>
-      <c r="N9" t="n">
-        <v>32.44591292034817</v>
       </c>
       <c r="O9" t="n">
         <v>91.58258828196773</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>73.59964020372426</v>
       </c>
       <c r="L10" t="n">
-        <v>88.92091093398703</v>
+        <v>15.32127073026277</v>
       </c>
       <c r="M10" t="n">
         <v>92.66494928910228</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>306.1020700503681</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>218.960139666439</v>
       </c>
       <c r="M15" t="n">
         <v>554.4630955659486</v>
@@ -35738,7 +35738,7 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O15" t="n">
-        <v>424.3782261294549</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P15" t="n">
         <v>391.0116722749049</v>
@@ -35969,19 +35969,19 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M18" t="n">
-        <v>484.7399473579036</v>
+        <v>503.0168661831898</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O18" t="n">
         <v>511.520156513384</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,16 +36042,16 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414994</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L19" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O19" t="n">
         <v>381.9794231908712</v>
@@ -36060,7 +36060,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641579</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36206,13 +36206,13 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M21" t="n">
-        <v>86.9900645845273</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O21" t="n">
-        <v>511.520156513384</v>
+        <v>69.06225485572025</v>
       </c>
       <c r="P21" t="n">
         <v>391.0116722749049</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,16 +36279,16 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L22" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O22" t="n">
         <v>381.9794231908712</v>
@@ -36297,7 +36297,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641579</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L23" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N23" t="n">
-        <v>687.4322072151692</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P23" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R23" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>132.906163644919</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K24" t="n">
-        <v>306.1020700503682</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L24" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M24" t="n">
-        <v>554.4630955659488</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327299</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P24" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>69.0622548557198</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,10 +36516,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M25" t="n">
         <v>432.4942538895099</v>
@@ -36528,7 +36528,7 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908716</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
         <v>307.6533340553059</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>255.0635279116844</v>
+        <v>255.063527911684</v>
       </c>
       <c r="K26" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L26" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M26" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N26" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O26" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P26" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q26" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R26" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K27" t="n">
-        <v>306.1020700503682</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L27" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M27" t="n">
-        <v>554.4630955659488</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327299</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P27" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>176.9532891768808</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L28" t="n">
         <v>401.8727935817349</v>
@@ -36765,7 +36765,7 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
         <v>307.6533340553059</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K29" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L29" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M29" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N29" t="n">
         <v>687.4322072151683</v>
       </c>
       <c r="O29" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P29" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q29" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R29" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>132.906163644919</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K30" t="n">
-        <v>306.1020700503682</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L30" t="n">
-        <v>291.4720624845354</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M30" t="n">
-        <v>554.4630955659488</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327299</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P30" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36993,16 +36993,16 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895106</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
         <v>307.6533340553059</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K32" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L32" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M32" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N32" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O32" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P32" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q32" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R32" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K33" t="n">
-        <v>306.1020700503682</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L33" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M33" t="n">
-        <v>554.4630955659488</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
-        <v>63.18301543687351</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O33" t="n">
-        <v>511.5201565133841</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P33" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193565</v>
+        <v>101.2059290193552</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
         <v>401.8727935817349</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K35" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L35" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M35" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N35" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O35" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P35" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q35" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R35" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>38.16788611311596</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K36" t="n">
-        <v>306.1020700503682</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L36" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M36" t="n">
-        <v>554.4630955659488</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133841</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P36" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37467,16 +37467,16 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
         <v>307.6533340553059</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K38" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L38" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M38" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N38" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O38" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P38" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q38" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R38" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>132.906163644919</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K39" t="n">
-        <v>306.1020700503682</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L39" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M39" t="n">
-        <v>554.4630955659488</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>583.6922706327299</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P39" t="n">
-        <v>224.101280623756</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
         <v>307.6533340553059</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K41" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L41" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M41" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N41" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O41" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P41" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q41" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R41" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>132.906163644919</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K42" t="n">
-        <v>18.68319416074012</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L42" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M42" t="n">
-        <v>554.4630955659488</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>583.6922706327299</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133841</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K44" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L44" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M44" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N44" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O44" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P44" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q44" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R44" t="n">
-        <v>107.1851555440219</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>132.906163644919</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K45" t="n">
-        <v>306.1020700503682</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L45" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M45" t="n">
-        <v>267.0442196763209</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327299</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133841</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38178,16 +38178,16 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N46" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P46" t="n">
         <v>307.6533340553059</v>
